--- a/format/downloadFormat/veneer.xlsx
+++ b/format/downloadFormat/veneer.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="invoice" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>supplier_item_name</t>
   </si>
@@ -78,12 +78,6 @@
   </si>
   <si>
     <t>remark</t>
-  </si>
-  <si>
-    <t>inward_sr_no</t>
-  </si>
-  <si>
-    <t>invoice_no</t>
   </si>
   <si>
     <t>total_item_amount</t>
@@ -488,108 +482,100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W1"/>
+  <dimension ref="A1:U1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="34.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="32.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="29.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="30" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="30.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="36.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="27.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="27.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="30" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="30.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="36.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="U1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -601,8 +587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/format/downloadFormat/veneer.xlsx
+++ b/format/downloadFormat/veneer.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="invoice" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>supplier_item_name</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>rate_in_currency</t>
-  </si>
-  <si>
-    <t>exchange_rate</t>
   </si>
   <si>
     <t>rate_in_inr</t>
@@ -484,7 +481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -515,67 +512,67 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="U1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -585,10 +582,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:T1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,13 +607,12 @@
     <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -676,9 +672,6 @@
       </c>
       <c r="T1" t="s">
         <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/format/downloadFormat/veneer.xlsx
+++ b/format/downloadFormat/veneer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>supplier_item_name</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>invoice_date</t>
+  </si>
+  <si>
+    <t>gst_value</t>
   </si>
 </sst>
 </file>
@@ -479,11 +482,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:V1"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -505,12 +506,13 @@
     <col min="16" max="16" width="29.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="30" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="30.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="36.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="20" max="20" width="30.28515625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="36.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
@@ -569,9 +571,12 @@
         <v>37</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -584,9 +589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:R1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
